--- a/data/trans_orig/IP16B07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7FE2126-6FC4-4CED-85FE-AA4BF85C743A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAFC2CB6-195D-45EB-9537-00B6D091303B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6A79B181-1E3B-4BA4-A01E-9C50A4F764B9}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4746E96C-F049-457A-9504-1A5760E7B411}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -65,15 +65,21 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -83,16 +89,10 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>mas de 50</t>
   </si>
   <si>
     <t>Capitales</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C702F5-BCE3-463E-B546-C5D4A336BB2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BB03BA-CE83-4615-ABDC-A1E28D529063}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -615,34 +615,30 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -664,39 +660,35 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -788,7 +780,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -807,30 +799,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>656</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>656</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -852,30 +848,34 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>656</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>656</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1089,13 +1089,13 @@
         <v>656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1104,13 +1104,13 @@
         <v>656</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1138,13 +1138,13 @@
         <v>656</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -1153,13 +1153,13 @@
         <v>656</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAFC2CB6-195D-45EB-9537-00B6D091303B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC6D56B0-3E14-4E3D-9162-D8CB3F3E460F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4746E96C-F049-457A-9504-1A5760E7B411}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{174B4223-9D3C-4791-8160-07E1F690EAC6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="20">
   <si>
     <t>Menores según si ha consumido pastillas para dormir recetados por el médico en 2012 (Tasa respuesta: 0,05%)</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Capitales</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -199,39 +202,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -283,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -394,13 +397,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -409,6 +405,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -473,19 +476,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BB03BA-CE83-4615-ABDC-A1E28D529063}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDDBB0C-8008-4E18-8CDC-191F543587F3}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1162,6 +1185,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A8:A9"/>

--- a/data/trans_orig/IP16B07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B07-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC6D56B0-3E14-4E3D-9162-D8CB3F3E460F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C804596B-7671-4D94-81B7-777C91097CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{174B4223-9D3C-4791-8160-07E1F690EAC6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F92CCB39-2532-419D-B8EC-E1CBA60F3755}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,10 +74,10 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,7 +89,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDDBB0C-8008-4E18-8CDC-191F543587F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63047010-2D05-4F7B-9A0B-F5CF27EF151B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP16B07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C804596B-7671-4D94-81B7-777C91097CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15EBD2F8-43FE-4128-B9D1-16146CF5FBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F92CCB39-2532-419D-B8EC-E1CBA60F3755}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C3503E0D-03D8-4B09-B780-DE999556081F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="19">
   <si>
     <t>Menores según si ha consumido pastillas para dormir recetados por el médico en 2012 (Tasa respuesta: 0,05%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,9 +74,6 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -89,7 +86,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -507,8 +504,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63047010-2D05-4F7B-9A0B-F5CF27EF151B}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3649FF2-3A41-4E2E-A679-06BAFCF58F96}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -717,17 +714,19 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>656</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -743,17 +742,19 @@
         <v>11</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>656</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -762,17 +763,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>656</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -788,22 +791,24 @@
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>656</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -822,34 +827,30 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -871,34 +872,30 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -995,23 +992,25 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>656</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1027,17 +1026,19 @@
         <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>656</v>
+      </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1046,17 +1047,19 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>656</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1072,130 +1075,31 @@
         <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>656</v>
+      </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>656</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>656</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>656</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="7">
-        <v>1</v>
-      </c>
-      <c r="N15" s="7">
-        <v>656</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
